--- a/GP2Y0A21.xlsx
+++ b/GP2Y0A21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\resaj\GitHub\GP2D-GP2Y-function\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21978F40-D9B1-4E9E-BA30-8A5286127A2D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5D6119-DA84-48FA-B479-4D629467FC24}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,18 +28,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>cm</t>
   </si>
   <si>
-    <t>in code</t>
+    <t>in code (3,3V ADC)</t>
   </si>
   <si>
-    <t>reference</t>
+    <t>reference (3,3V ADC)</t>
   </si>
   <si>
-    <t>GP2Y0A21</t>
+    <t>in code (5V ADC)</t>
+  </si>
+  <si>
+    <t>reference (5V ADC)</t>
+  </si>
+  <si>
+    <t>GP2Y0A21 (5V ADC)</t>
+  </si>
+  <si>
+    <t>GP2Y0A21 (3,3V ADC)</t>
   </si>
 </sst>
 </file>
@@ -364,7 +373,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -479,6 +488,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -524,8 +613,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -609,7 +707,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-ES"/>
-              <a:t>GP2Y0A21</a:t>
+              <a:t>GP2Y0A21 (5V sensor supply)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -631,7 +729,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GP2Y0A21</c:v>
+                  <c:v>GP2Y0A21 (3,3V ADC)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1027,6 +1125,414 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0855-4CAA-A372-3B511A448ED8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GP2D120!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GP2Y0A21 (5V ADC)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>GP2D120!$A$2:$A$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>GP2D120!$E$2:$E$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>648</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>647</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>612</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BC89-4B24-86D3-03026C2C1B0E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1048,8 +1554,9 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="108796544"/>
@@ -1065,7 +1572,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="108795008"/>
@@ -1073,6 +1580,10 @@
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1100,6 +1611,29 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>reference (5V</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> sensor supply</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1117,7 +1651,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>reference</c:v>
+                  <c:v>reference (3,3V ADC)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1513,6 +2047,414 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4A31-457F-889F-E5AD6CC70D4F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GP2D120!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>reference (5V ADC)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>GP2D120!$A$2:$A$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>GP2D120!$G$2:$G$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9905403238736563E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11073387307390965</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12837180733991915</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55368234250221826</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.76407749411551684</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.91505791505791501</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99375780274656678</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98766575945335577</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99176370349332577</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0005036091992614</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.98941798941798942</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.99454743729552897</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.99066328458092734</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.9887640449438202</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.98778544875199137</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.98212308179085583</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.98426683448709873</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.98012830542951035</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.99132151951358927</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.98928959486728407</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.98232960692390914</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.99486125385405955</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.97912402783462948</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.98484152503445099</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.99312452253628725</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.98765933675283124</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.98480243161094216</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.99115044247787609</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.99133588555309293</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.99798792756539234</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.9759229534510433</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.97856141053897017</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.97959183673469397</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.98635886673662121</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.98438201686542592</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.99626028421839952</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.0073247296825949</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.0013434841021047</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.0020876826722338</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0086835706842654</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.9841159879261715</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.99105598655927263</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.99481865284974091</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.9954171389148968</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.99286452438364259</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.98717381689517913</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.98969072164948446</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.0015698587127158</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.0118639082262968</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.99559385097424846</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.98909375458502469</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.99349982894286704</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.99633699633699635</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.98360655737704927</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.98293515358361772</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.98070551549405582</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.99206078612829374</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.98710148454611824</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.99649669131957963</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-11C6-48A7-842C-96B741CBDD29}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1534,8 +2476,9 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="108830720"/>
@@ -1551,7 +2494,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="108828928"/>
@@ -1559,6 +2502,10 @@
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1575,16 +2522,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>280146</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>11205</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1611,15 +2558,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>6722</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1969,23 +2916,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1993,981 +2945,1661 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>47</v>
       </c>
-      <c r="C2">
-        <f>31*((3000 / (B2 +1) - 0.8))</f>
+      <c r="C2" s="2">
+        <f t="shared" ref="C2:C33" si="0">31*((3000 / (B2 +1) - 0.8))</f>
         <v>1912.7</v>
       </c>
-      <c r="D2">
-        <f>A2/C2</f>
+      <c r="D2" s="3">
+        <f t="shared" ref="D2:D33" si="1">A2/C2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="1">
+        <v>300</v>
+      </c>
+      <c r="F2" s="2">
+        <f>17.5*((3000 / (E2 - 15) - 1))</f>
+        <v>166.71052631578948</v>
+      </c>
+      <c r="G2" s="3">
+        <f>A2/F2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>551</v>
       </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C62" si="0">31*((3000 / (B3 +1) - 0.8))</f>
+      <c r="C3" s="5">
+        <f t="shared" si="0"/>
         <v>143.67826086956524</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D52" si="1">A3/C3</f>
+      <c r="D3" s="6">
+        <f t="shared" si="1"/>
         <v>6.9599951582642372E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="4">
+        <v>342</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" ref="F3:F62" si="2">17.5*((3000 / (E3 - 15) - 1))</f>
+        <v>143.05045871559633</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" ref="G3:G62" si="3">A3/F3</f>
+        <v>6.9905403238736563E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>428</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <f t="shared" si="0"/>
         <v>191.98321678321679</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="6">
         <f t="shared" si="1"/>
         <v>0.1041757729405251</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="4">
+        <v>280</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" si="2"/>
+        <v>180.61320754716979</v>
+      </c>
+      <c r="G4" s="6">
+        <f t="shared" si="3"/>
+        <v>0.11073387307390965</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>30</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>799</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <f t="shared" si="0"/>
         <v>91.45</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="6">
         <f t="shared" si="1"/>
         <v>0.32804811372334608</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="4">
+        <v>224</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="2"/>
+        <v>233.6961722488038</v>
+      </c>
+      <c r="G5" s="6">
+        <f t="shared" si="3"/>
+        <v>0.12837180733991915</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>40</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>957</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <f t="shared" si="0"/>
         <v>72.277244258872656</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="6">
         <f t="shared" si="1"/>
         <v>0.55342453091782973</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="4">
+        <v>600</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="2"/>
+        <v>72.243589743589752</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="3"/>
+        <v>0.55368234250221826</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>50</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>986</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <f t="shared" si="0"/>
         <v>69.424924012158073</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="6">
         <f t="shared" si="1"/>
         <v>0.72020244474799466</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="4">
+        <v>648</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="2"/>
+        <v>65.438388625592424</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" si="3"/>
+        <v>0.76407749411551684</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>60</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <v>987</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
         <f t="shared" si="0"/>
         <v>69.329554655870453</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="6">
         <f t="shared" si="1"/>
         <v>0.86543178155147027</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="4">
+        <v>647</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="2"/>
+        <v>65.569620253164558</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="3"/>
+        <v>0.91505791505791501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>70</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>983</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="5">
         <f t="shared" si="0"/>
         <v>69.712195121951225</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="6">
         <f t="shared" si="1"/>
         <v>1.0041284724651878</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="4">
+        <v>612</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="2"/>
+        <v>70.439698492462313</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="3"/>
+        <v>0.99375780274656678</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>80</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <v>897</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="5">
         <f t="shared" si="0"/>
         <v>78.76347438752785</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="6">
         <f t="shared" si="1"/>
         <v>1.0156992263493643</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="4">
+        <v>548</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="2"/>
+        <v>80.999061913696053</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="3"/>
+        <v>0.98766575945335577</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>90</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>806</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="5">
         <f t="shared" si="0"/>
         <v>90.44163568773233</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="6">
         <f t="shared" si="1"/>
         <v>0.99511689849067786</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="4">
+        <v>500</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="2"/>
+        <v>90.74742268041237</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="3"/>
+        <v>0.99176370349332577</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>100</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
         <v>744</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="5">
         <f t="shared" si="0"/>
         <v>100.03221476510069</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="6">
         <f t="shared" si="1"/>
         <v>0.99967795609468069</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="4">
+        <v>462</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="2"/>
+        <v>99.949664429530202</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="3"/>
+        <v>1.0005036091992614</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>110</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <v>687</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="5">
         <f t="shared" si="0"/>
         <v>110.37441860465115</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="6">
         <f t="shared" si="1"/>
         <v>0.99660774109268668</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="4">
+        <v>423</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="2"/>
+        <v>111.17647058823529</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" si="3"/>
+        <v>0.98941798941798942</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>120</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
         <v>631</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="5">
         <f t="shared" si="0"/>
         <v>122.35189873417724</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="6">
         <f t="shared" si="1"/>
         <v>0.98077758695607176</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="4">
+        <v>395</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="2"/>
+        <v>120.6578947368421</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="3"/>
+        <v>0.99454743729552897</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>130</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4">
         <v>597</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="5">
         <f t="shared" si="0"/>
         <v>130.71839464882945</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="6">
         <f t="shared" si="1"/>
         <v>0.99450425740952997</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="4">
+        <v>368</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="2"/>
+        <v>131.22521246458922</v>
+      </c>
+      <c r="G15" s="6">
+        <f t="shared" si="3"/>
+        <v>0.99066328458092734</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>140</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="4">
         <v>551</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="5">
         <f t="shared" si="0"/>
         <v>143.67826086956524</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="6">
         <f t="shared" si="1"/>
         <v>0.97439932215699321</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="4">
+        <v>345</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="2"/>
+        <v>141.59090909090909</v>
+      </c>
+      <c r="G16" s="6">
+        <f t="shared" si="3"/>
+        <v>0.9887640449438202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>150</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4">
         <v>519</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="5">
         <f t="shared" si="0"/>
         <v>154.04615384615386</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="6">
         <f t="shared" si="1"/>
         <v>0.97373414561070604</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="4">
+        <v>325</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="2"/>
+        <v>151.85483870967744</v>
+      </c>
+      <c r="G17" s="6">
+        <f t="shared" si="3"/>
+        <v>0.98778544875199137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>160</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
         <v>504</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="5">
         <f t="shared" si="0"/>
         <v>159.35841584158416</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="6">
         <f t="shared" si="1"/>
         <v>1.0040260450320593</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="4">
+        <v>306</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="2"/>
+        <v>162.91237113402062</v>
+      </c>
+      <c r="G18" s="6">
+        <f t="shared" si="3"/>
+        <v>0.98212308179085583</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>170</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="4">
         <v>466</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="5">
         <f t="shared" si="0"/>
         <v>174.34346895074947</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="6">
         <f t="shared" si="1"/>
         <v>0.97508671258585278</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="4">
+        <v>291</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="2"/>
+        <v>172.71739130434784</v>
+      </c>
+      <c r="G19" s="6">
+        <f t="shared" si="3"/>
+        <v>0.98426683448709873</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>180</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="4">
         <v>446</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="5">
         <f t="shared" si="0"/>
         <v>183.2536912751678</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="6">
         <f t="shared" si="1"/>
         <v>0.98224488002109511</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="4">
+        <v>276</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="2"/>
+        <v>183.64942528735631</v>
+      </c>
+      <c r="G20" s="6">
+        <f t="shared" si="3"/>
+        <v>0.98012830542951035</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>190</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="4">
         <v>431</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="5">
         <f t="shared" si="0"/>
         <v>190.47777777777779</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="6">
         <f t="shared" si="1"/>
         <v>0.9974916875692702</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="4">
+        <v>266</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="2"/>
+        <v>191.66334661354583</v>
+      </c>
+      <c r="G21" s="6">
+        <f t="shared" si="3"/>
+        <v>0.99132151951358927</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>200</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="4">
         <v>406</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="5">
         <f t="shared" si="0"/>
         <v>203.70122850122851</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="6">
         <f t="shared" si="1"/>
         <v>0.98183011202995174</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="4">
+        <v>254</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="2"/>
+        <v>202.1652719665272</v>
+      </c>
+      <c r="G22" s="6">
+        <f t="shared" si="3"/>
+        <v>0.98928959486728407</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>210</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="4">
         <v>399</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="5">
         <f t="shared" si="0"/>
         <v>207.70000000000002</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="6">
         <f t="shared" si="1"/>
         <v>1.0110736639383726</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="4">
+        <v>242</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="2"/>
+        <v>213.77753303964758</v>
+      </c>
+      <c r="G23" s="6">
+        <f t="shared" si="3"/>
+        <v>0.98232960692390914</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>220</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="4">
         <v>383</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="5">
         <f t="shared" si="0"/>
         <v>217.38750000000002</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="6">
         <f t="shared" si="1"/>
         <v>1.0120177103099304</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="4">
+        <v>235</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="2"/>
+        <v>221.13636363636365</v>
+      </c>
+      <c r="G24" s="6">
+        <f t="shared" si="3"/>
+        <v>0.99486125385405955</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>230</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="4">
         <v>359</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="5">
         <f t="shared" si="0"/>
         <v>233.53333333333336</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="6">
         <f t="shared" si="1"/>
         <v>0.98487011133314295</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="4">
+        <v>223</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="2"/>
+        <v>234.90384615384616</v>
+      </c>
+      <c r="G25" s="6">
+        <f t="shared" si="3"/>
+        <v>0.97912402783462948</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>240</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="4">
         <v>350</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="5">
         <f t="shared" si="0"/>
         <v>240.15726495726497</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="6">
         <f t="shared" si="1"/>
         <v>0.99934515844318528</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="4">
+        <v>216</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="2"/>
+        <v>243.69402985074629</v>
+      </c>
+      <c r="G26" s="6">
+        <f t="shared" si="3"/>
+        <v>0.98484152503445099</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>250</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="4">
         <v>340</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="5">
         <f t="shared" si="0"/>
         <v>247.92727272727271</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="6">
         <f t="shared" si="1"/>
         <v>1.0083602229392785</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="4">
+        <v>210</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="2"/>
+        <v>251.73076923076923</v>
+      </c>
+      <c r="G27" s="6">
+        <f t="shared" si="3"/>
+        <v>0.99312452253628725</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>260</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="4">
         <v>326</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="5">
         <f t="shared" si="0"/>
         <v>259.60366972477061</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="6">
         <f t="shared" si="1"/>
         <v>1.0015266743942779</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="4">
+        <v>202</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="2"/>
+        <v>263.24866310160428</v>
+      </c>
+      <c r="G28" s="6">
+        <f t="shared" si="3"/>
+        <v>0.98765933675283124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>270</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="4">
         <v>314</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="5">
         <f t="shared" si="0"/>
         <v>270.43809523809523</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="6">
         <f t="shared" si="1"/>
         <v>0.99838005352866599</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="4">
+        <v>195</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="2"/>
+        <v>274.16666666666669</v>
+      </c>
+      <c r="G29" s="6">
+        <f t="shared" si="3"/>
+        <v>0.98480243161094216</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>280</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="4">
         <v>308</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="5">
         <f t="shared" si="0"/>
         <v>276.1708737864077</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="6">
         <f t="shared" si="1"/>
         <v>1.0138650617318674</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="4">
+        <v>190</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" si="2"/>
+        <v>282.5</v>
+      </c>
+      <c r="G30" s="6">
+        <f t="shared" si="3"/>
+        <v>0.99115044247787609</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>290</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="4">
         <v>294</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="5">
         <f t="shared" si="0"/>
         <v>290.45423728813557</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="6">
         <f t="shared" si="1"/>
         <v>0.99843611409364652</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="4">
+        <v>183</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="2"/>
+        <v>295</v>
+      </c>
+      <c r="G31" s="6">
+        <f t="shared" si="3"/>
+        <v>0.98305084745762716</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>300</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="4">
         <v>286</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="5">
         <f t="shared" si="0"/>
         <v>299.24181184668987</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="6">
         <f t="shared" si="1"/>
         <v>1.0025336972418097</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="4">
+        <v>179</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" si="2"/>
+        <v>302.6219512195122</v>
+      </c>
+      <c r="G32" s="6">
+        <f t="shared" si="3"/>
+        <v>0.99133588555309293</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>310</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="4">
         <v>276</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="5">
         <f t="shared" si="0"/>
         <v>310.94007220216605</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="6">
         <f t="shared" si="1"/>
         <v>0.99697667722430183</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="4">
+        <v>175</v>
+      </c>
+      <c r="F33" s="5">
+        <f t="shared" si="2"/>
+        <v>310.625</v>
+      </c>
+      <c r="G33" s="6">
+        <f t="shared" si="3"/>
+        <v>0.99798792756539234</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>320</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="4">
         <v>270</v>
       </c>
-      <c r="C34">
-        <f t="shared" si="0"/>
+      <c r="C34" s="5">
+        <f t="shared" ref="C34:C65" si="4">31*((3000 / (B34 +1) - 0.8))</f>
         <v>318.37343173431731</v>
       </c>
-      <c r="D34">
-        <f t="shared" si="1"/>
+      <c r="D34" s="6">
+        <f t="shared" ref="D34:D65" si="5">A34/C34</f>
         <v>1.0051089949837273</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="4">
+        <v>167</v>
+      </c>
+      <c r="F34" s="5">
+        <f t="shared" si="2"/>
+        <v>327.89473684210526</v>
+      </c>
+      <c r="G34" s="6">
+        <f t="shared" si="3"/>
+        <v>0.9759229534510433</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>330</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="4">
         <v>260</v>
       </c>
-      <c r="C35">
-        <f t="shared" si="0"/>
+      <c r="C35" s="5">
+        <f t="shared" si="4"/>
         <v>331.5218390804597</v>
       </c>
-      <c r="D35">
-        <f t="shared" si="1"/>
+      <c r="D35" s="6">
+        <f t="shared" si="5"/>
         <v>0.99540953596094661</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="4">
+        <v>163</v>
+      </c>
+      <c r="F35" s="5">
+        <f t="shared" si="2"/>
+        <v>337.22972972972974</v>
+      </c>
+      <c r="G35" s="6">
+        <f t="shared" si="3"/>
+        <v>0.97856141053897017</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>340</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="4">
         <v>256</v>
       </c>
-      <c r="C36">
-        <f t="shared" si="0"/>
+      <c r="C36" s="5">
+        <f t="shared" si="4"/>
         <v>337.06770428015562</v>
       </c>
-      <c r="D36">
-        <f t="shared" si="1"/>
+      <c r="D36" s="6">
+        <f t="shared" si="5"/>
         <v>1.0086994265027751</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="4">
+        <v>159</v>
+      </c>
+      <c r="F36" s="5">
+        <f t="shared" si="2"/>
+        <v>347.08333333333331</v>
+      </c>
+      <c r="G36" s="6">
+        <f t="shared" si="3"/>
+        <v>0.97959183673469397</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>350</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="4">
         <v>250</v>
       </c>
-      <c r="C37">
-        <f t="shared" si="0"/>
+      <c r="C37" s="5">
+        <f t="shared" si="4"/>
         <v>345.71792828685255</v>
       </c>
-      <c r="D37">
-        <f t="shared" si="1"/>
+      <c r="D37" s="6">
+        <f t="shared" si="5"/>
         <v>1.0123860273442182</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="4">
+        <v>156</v>
+      </c>
+      <c r="F37" s="5">
+        <f t="shared" si="2"/>
+        <v>354.84042553191489</v>
+      </c>
+      <c r="G37" s="6">
+        <f t="shared" si="3"/>
+        <v>0.98635886673662121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>360</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="4">
         <v>244</v>
       </c>
-      <c r="C38">
-        <f t="shared" si="0"/>
+      <c r="C38" s="5">
+        <f t="shared" si="4"/>
         <v>354.79183673469385</v>
       </c>
-      <c r="D38">
-        <f t="shared" si="1"/>
+      <c r="D38" s="6">
+        <f t="shared" si="5"/>
         <v>1.0146794901293084</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="4">
+        <v>152</v>
+      </c>
+      <c r="F38" s="5">
+        <f t="shared" si="2"/>
+        <v>365.71167883211677</v>
+      </c>
+      <c r="G38" s="6">
+        <f t="shared" si="3"/>
+        <v>0.98438201686542592</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>370</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="4">
         <v>234</v>
       </c>
-      <c r="C39">
-        <f t="shared" si="0"/>
+      <c r="C39" s="5">
+        <f t="shared" si="4"/>
         <v>370.94468085106382</v>
       </c>
-      <c r="D39">
-        <f t="shared" si="1"/>
+      <c r="D39" s="6">
+        <f t="shared" si="5"/>
         <v>0.99745331069609511</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="4">
+        <v>150</v>
+      </c>
+      <c r="F39" s="5">
+        <f t="shared" si="2"/>
+        <v>371.38888888888886</v>
+      </c>
+      <c r="G39" s="6">
+        <f t="shared" si="3"/>
+        <v>0.99626028421839952</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>380</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="4">
         <v>230</v>
       </c>
-      <c r="C40">
-        <f t="shared" si="0"/>
+      <c r="C40" s="5">
+        <f t="shared" si="4"/>
         <v>377.79740259740259</v>
       </c>
-      <c r="D40">
-        <f t="shared" si="1"/>
+      <c r="D40" s="6">
+        <f t="shared" si="5"/>
         <v>1.0058301020267855</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="4">
+        <v>148</v>
+      </c>
+      <c r="F40" s="5">
+        <f t="shared" si="2"/>
+        <v>377.23684210526318</v>
+      </c>
+      <c r="G40" s="6">
+        <f t="shared" si="3"/>
+        <v>1.0073247296825949</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>390</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="4">
         <v>223</v>
       </c>
-      <c r="C41">
-        <f t="shared" si="0"/>
+      <c r="C41" s="5">
+        <f t="shared" si="4"/>
         <v>390.37857142857138</v>
       </c>
-      <c r="D41">
-        <f t="shared" si="1"/>
+      <c r="D41" s="6">
+        <f t="shared" si="5"/>
         <v>0.99903024536621976</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="4">
+        <v>144</v>
+      </c>
+      <c r="F41" s="5">
+        <f t="shared" si="2"/>
+        <v>389.47674418604652</v>
+      </c>
+      <c r="G41" s="6">
+        <f t="shared" si="3"/>
+        <v>1.0013434841021047</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>400</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="4">
         <v>216</v>
       </c>
-      <c r="C42">
-        <f t="shared" si="0"/>
+      <c r="C42" s="5">
+        <f t="shared" si="4"/>
         <v>403.77142857142854</v>
       </c>
-      <c r="D42">
-        <f t="shared" si="1"/>
+      <c r="D42" s="6">
+        <f t="shared" si="5"/>
         <v>0.99065949617888482</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="4">
+        <v>141</v>
+      </c>
+      <c r="F42" s="5">
+        <f t="shared" si="2"/>
+        <v>399.16666666666669</v>
+      </c>
+      <c r="G42" s="6">
+        <f t="shared" si="3"/>
+        <v>1.0020876826722338</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>420</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="4">
         <v>206</v>
       </c>
-      <c r="C43">
-        <f t="shared" si="0"/>
+      <c r="C43" s="5">
+        <f t="shared" si="4"/>
         <v>424.47536231884055</v>
       </c>
-      <c r="D43">
-        <f t="shared" si="1"/>
+      <c r="D43" s="6">
+        <f t="shared" si="5"/>
         <v>0.98945672065772583</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="4">
+        <v>136</v>
+      </c>
+      <c r="F43" s="5">
+        <f t="shared" si="2"/>
+        <v>416.38429752066116</v>
+      </c>
+      <c r="G43" s="6">
+        <f t="shared" si="3"/>
+        <v>1.0086835706842654</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>440</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="4">
         <v>200</v>
       </c>
-      <c r="C44">
-        <f t="shared" si="0"/>
+      <c r="C44" s="5">
+        <f t="shared" si="4"/>
         <v>437.8865671641791</v>
       </c>
-      <c r="D44">
-        <f t="shared" si="1"/>
+      <c r="D44" s="6">
+        <f t="shared" si="5"/>
         <v>1.0048264390696153</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="4">
+        <v>128</v>
+      </c>
+      <c r="F44" s="5">
+        <f t="shared" si="2"/>
+        <v>447.10176991150445</v>
+      </c>
+      <c r="G44" s="6">
+        <f t="shared" si="3"/>
+        <v>0.9841159879261715</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>460</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="4">
         <v>192</v>
       </c>
-      <c r="C45">
-        <f t="shared" si="0"/>
+      <c r="C45" s="5">
+        <f t="shared" si="4"/>
         <v>457.06528497409323</v>
       </c>
-      <c r="D45">
-        <f t="shared" si="1"/>
+      <c r="D45" s="6">
+        <f t="shared" si="5"/>
         <v>1.0064207786554455</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="4">
+        <v>124</v>
+      </c>
+      <c r="F45" s="5">
+        <f t="shared" si="2"/>
+        <v>464.151376146789</v>
+      </c>
+      <c r="G45" s="6">
+        <f t="shared" si="3"/>
+        <v>0.99105598655927263</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>480</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="4">
         <v>182</v>
       </c>
-      <c r="C46">
-        <f t="shared" si="0"/>
+      <c r="C46" s="5">
+        <f t="shared" si="4"/>
         <v>483.39672131147535</v>
       </c>
-      <c r="D46">
-        <f t="shared" si="1"/>
+      <c r="D46" s="6">
+        <f t="shared" si="5"/>
         <v>0.99297322227949769</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="4">
+        <v>120</v>
+      </c>
+      <c r="F46" s="5">
+        <f t="shared" si="2"/>
+        <v>482.5</v>
+      </c>
+      <c r="G46" s="6">
+        <f t="shared" si="3"/>
+        <v>0.99481865284974091</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>500</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="4">
         <v>174</v>
       </c>
-      <c r="C47">
-        <f t="shared" si="0"/>
+      <c r="C47" s="5">
+        <f t="shared" si="4"/>
         <v>506.62857142857138</v>
       </c>
-      <c r="D47">
-        <f t="shared" si="1"/>
+      <c r="D47" s="6">
+        <f t="shared" si="5"/>
         <v>0.98691630949695475</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="4">
+        <v>116</v>
+      </c>
+      <c r="F47" s="5">
+        <f t="shared" si="2"/>
+        <v>502.30198019801981</v>
+      </c>
+      <c r="G47" s="6">
+        <f t="shared" si="3"/>
+        <v>0.9954171389148968</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>520</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="4">
         <v>166</v>
       </c>
-      <c r="C48">
-        <f t="shared" si="0"/>
+      <c r="C48" s="5">
+        <f t="shared" si="4"/>
         <v>532.08622754491012</v>
       </c>
-      <c r="D48">
-        <f t="shared" si="1"/>
+      <c r="D48" s="6">
+        <f t="shared" si="5"/>
         <v>0.97728520882662762</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="4">
+        <v>112</v>
+      </c>
+      <c r="F48" s="5">
+        <f t="shared" si="2"/>
+        <v>523.73711340206182</v>
+      </c>
+      <c r="G48" s="6">
+        <f t="shared" si="3"/>
+        <v>0.99286452438364259</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>540</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="4">
         <v>159</v>
       </c>
-      <c r="C49">
-        <f t="shared" si="0"/>
+      <c r="C49" s="5">
+        <f t="shared" si="4"/>
         <v>556.44999999999993</v>
       </c>
-      <c r="D49">
-        <f t="shared" si="1"/>
+      <c r="D49" s="6">
+        <f t="shared" si="5"/>
         <v>0.97043759547129138</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="4">
+        <v>108</v>
+      </c>
+      <c r="F49" s="5">
+        <f t="shared" si="2"/>
+        <v>547.01612903225805</v>
+      </c>
+      <c r="G49" s="6">
+        <f t="shared" si="3"/>
+        <v>0.98717381689517913</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>560</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="4">
         <v>154</v>
       </c>
-      <c r="C50">
-        <f t="shared" si="0"/>
+      <c r="C50" s="5">
+        <f t="shared" si="4"/>
         <v>575.20000000000005</v>
       </c>
-      <c r="D50">
-        <f t="shared" si="1"/>
+      <c r="D50" s="6">
+        <f t="shared" si="5"/>
         <v>0.97357440890125169</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="4">
+        <v>105</v>
+      </c>
+      <c r="F50" s="5">
+        <f t="shared" si="2"/>
+        <v>565.83333333333337</v>
+      </c>
+      <c r="G50" s="6">
+        <f t="shared" si="3"/>
+        <v>0.98969072164948446</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>580</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="4">
         <v>150</v>
       </c>
-      <c r="C51">
-        <f t="shared" si="0"/>
+      <c r="C51" s="5">
+        <f t="shared" si="4"/>
         <v>591.09403973509927</v>
       </c>
-      <c r="D51">
-        <f t="shared" si="1"/>
+      <c r="D51" s="6">
+        <f t="shared" si="5"/>
         <v>0.98123134562468084</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="4">
+        <v>103</v>
+      </c>
+      <c r="F51" s="5">
+        <f t="shared" si="2"/>
+        <v>579.09090909090912</v>
+      </c>
+      <c r="G51" s="6">
+        <f t="shared" si="3"/>
+        <v>1.0015698587127158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>600</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="4">
         <v>150</v>
       </c>
-      <c r="C52">
-        <f t="shared" si="0"/>
+      <c r="C52" s="5">
+        <f t="shared" si="4"/>
         <v>591.09403973509927</v>
       </c>
-      <c r="D52">
-        <f t="shared" si="1"/>
+      <c r="D52" s="6">
+        <f t="shared" si="5"/>
         <v>1.0150669092669111</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="4">
+        <v>101</v>
+      </c>
+      <c r="F52" s="5">
+        <f t="shared" si="2"/>
+        <v>592.96511627906978</v>
+      </c>
+      <c r="G52" s="6">
+        <f t="shared" si="3"/>
+        <v>1.0118639082262968</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>620</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="4">
         <v>150</v>
       </c>
-      <c r="C53">
-        <f t="shared" si="0"/>
+      <c r="C53" s="5">
+        <f t="shared" si="4"/>
         <v>591.09403973509927</v>
       </c>
-      <c r="D53">
-        <f t="shared" ref="D53:D61" si="2">A53/C53</f>
+      <c r="D53" s="6">
+        <f t="shared" si="5"/>
         <v>1.0489024729091416</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="4">
+        <v>97</v>
+      </c>
+      <c r="F53" s="5">
+        <f t="shared" si="2"/>
+        <v>622.7439024390244</v>
+      </c>
+      <c r="G53" s="6">
+        <f t="shared" si="3"/>
+        <v>0.99559385097424846</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>640</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="4">
         <v>143</v>
       </c>
-      <c r="C54">
-        <f t="shared" si="0"/>
+      <c r="C54" s="5">
+        <f t="shared" si="4"/>
         <v>621.0333333333333</v>
       </c>
-      <c r="D54">
-        <f t="shared" si="2"/>
+      <c r="D54" s="6">
+        <f t="shared" si="5"/>
         <v>1.0305404970210938</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" s="4">
+        <v>94</v>
+      </c>
+      <c r="F54" s="5">
+        <f t="shared" si="2"/>
+        <v>647.05696202531647</v>
+      </c>
+      <c r="G54" s="6">
+        <f t="shared" si="3"/>
+        <v>0.98909375458502469</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>660</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="4">
         <v>134</v>
       </c>
-      <c r="C55">
-        <f t="shared" si="0"/>
+      <c r="C55" s="5">
+        <f t="shared" si="4"/>
         <v>664.08888888888885</v>
       </c>
-      <c r="D55">
-        <f t="shared" si="2"/>
+      <c r="D55" s="6">
+        <f t="shared" si="5"/>
         <v>0.9938428590550128</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="4">
+        <v>92</v>
+      </c>
+      <c r="F55" s="5">
+        <f t="shared" si="2"/>
+        <v>664.31818181818176</v>
+      </c>
+      <c r="G55" s="6">
+        <f t="shared" si="3"/>
+        <v>0.99349982894286704</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>680</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="4">
         <v>136</v>
       </c>
-      <c r="C56">
-        <f t="shared" si="0"/>
+      <c r="C56" s="5">
+        <f t="shared" si="4"/>
         <v>654.0321167883211</v>
       </c>
-      <c r="D56">
-        <f t="shared" si="2"/>
+      <c r="D56" s="6">
+        <f t="shared" si="5"/>
         <v>1.0397042936349921</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="4">
+        <v>90</v>
+      </c>
+      <c r="F56" s="5">
+        <f t="shared" si="2"/>
+        <v>682.5</v>
+      </c>
+      <c r="G56" s="6">
+        <f t="shared" si="3"/>
+        <v>0.99633699633699635</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>700</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="4">
         <v>130</v>
       </c>
-      <c r="C57">
-        <f t="shared" si="0"/>
+      <c r="C57" s="5">
+        <f t="shared" si="4"/>
         <v>685.12366412213737</v>
       </c>
-      <c r="D57">
-        <f t="shared" si="2"/>
+      <c r="D57" s="6">
+        <f t="shared" si="5"/>
         <v>1.0217133587071816</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" s="4">
+        <v>87</v>
+      </c>
+      <c r="F57" s="5">
+        <f t="shared" si="2"/>
+        <v>711.66666666666663</v>
+      </c>
+      <c r="G57" s="6">
+        <f t="shared" si="3"/>
+        <v>0.98360655737704927</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>720</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="4">
         <v>128</v>
       </c>
-      <c r="C58">
-        <f t="shared" si="0"/>
+      <c r="C58" s="5">
+        <f t="shared" si="4"/>
         <v>696.13023255813948</v>
       </c>
-      <c r="D58">
-        <f t="shared" si="2"/>
+      <c r="D58" s="6">
+        <f t="shared" si="5"/>
         <v>1.0342892268220329</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" s="4">
+        <v>85</v>
+      </c>
+      <c r="F58" s="5">
+        <f t="shared" si="2"/>
+        <v>732.5</v>
+      </c>
+      <c r="G58" s="6">
+        <f t="shared" si="3"/>
+        <v>0.98293515358361772</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>740</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="4">
         <v>124</v>
       </c>
-      <c r="C59">
-        <f t="shared" si="0"/>
+      <c r="C59" s="5">
+        <f t="shared" si="4"/>
         <v>719.19999999999993</v>
       </c>
-      <c r="D59">
-        <f t="shared" si="2"/>
+      <c r="D59" s="6">
+        <f t="shared" si="5"/>
         <v>1.0289210233592883</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="4">
+        <v>83</v>
+      </c>
+      <c r="F59" s="5">
+        <f t="shared" si="2"/>
+        <v>754.55882352941171</v>
+      </c>
+      <c r="G59" s="6">
+        <f t="shared" si="3"/>
+        <v>0.98070551549405582</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>760</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="4">
         <v>122</v>
       </c>
-      <c r="C60">
-        <f t="shared" si="0"/>
+      <c r="C60" s="5">
+        <f t="shared" si="4"/>
         <v>731.29756097560971</v>
       </c>
-      <c r="D60">
-        <f t="shared" si="2"/>
+      <c r="D60" s="6">
+        <f t="shared" si="5"/>
         <v>1.0392486459083754</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="4">
+        <v>82</v>
+      </c>
+      <c r="F60" s="5">
+        <f t="shared" si="2"/>
+        <v>766.08208955223881</v>
+      </c>
+      <c r="G60" s="6">
+        <f t="shared" si="3"/>
+        <v>0.99206078612829374</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>780</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="4">
         <v>118</v>
       </c>
-      <c r="C61">
-        <f t="shared" si="0"/>
+      <c r="C61" s="5">
+        <f t="shared" si="4"/>
         <v>756.71260504201678</v>
       </c>
-      <c r="D61">
-        <f t="shared" si="2"/>
+      <c r="D61" s="6">
+        <f t="shared" si="5"/>
         <v>1.0307744245342525</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="4">
+        <v>80</v>
+      </c>
+      <c r="F61" s="5">
+        <f t="shared" si="2"/>
+        <v>790.19230769230774</v>
+      </c>
+      <c r="G61" s="6">
+        <f t="shared" si="3"/>
+        <v>0.98710148454611824</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>800</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="7">
         <v>111</v>
       </c>
-      <c r="C62">
-        <f t="shared" si="0"/>
+      <c r="C62" s="8">
+        <f t="shared" si="4"/>
         <v>805.55714285714282</v>
       </c>
-      <c r="D62">
-        <f t="shared" ref="D62" si="3">A62/C62</f>
+      <c r="D62" s="9">
+        <f t="shared" si="5"/>
         <v>0.99310149142563275</v>
+      </c>
+      <c r="E62" s="7">
+        <v>79</v>
+      </c>
+      <c r="F62" s="8">
+        <f t="shared" si="2"/>
+        <v>802.8125</v>
+      </c>
+      <c r="G62" s="9">
+        <f t="shared" si="3"/>
+        <v>0.99649669131957963</v>
       </c>
     </row>
   </sheetData>
